--- a/Documentation/dbraw.xlsx
+++ b/Documentation/dbraw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejal Naik\Desktop\cdac_Project\Cdac-Project\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C-DAC\Project\Cdac-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EBAF6A-2B9E-48A3-9883-5579DE2AD10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB4AC6E-6E5E-4752-841F-63AE36F6E2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BF33976-700D-4C25-9B98-68ED924E98C1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="47">
   <si>
     <t>1. Role</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>varchar(225)</t>
+  </si>
+  <si>
+    <t>om</t>
   </si>
 </sst>
 </file>
@@ -295,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -305,10 +308,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -317,27 +339,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D7EF82-BDA5-426B-BA27-27E3C64BA0E2}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,1204 +668,1325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="7"/>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7"/>
+      <c r="B7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14"/>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="7"/>
+      <c r="B13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14"/>
       <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="7"/>
+      <c r="B19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14"/>
       <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="7"/>
+      <c r="B25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="14"/>
       <c r="D25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8" t="s">
+      <c r="F25" s="15"/>
+      <c r="G25" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="8"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="7"/>
+      <c r="B31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="14"/>
       <c r="D31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
+      <c r="F31" s="15"/>
+      <c r="G31" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="5"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="7"/>
+      <c r="B37" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="14"/>
       <c r="D37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8" t="s">
+      <c r="F37" s="15"/>
+      <c r="G37" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="15"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>1</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5" t="s">
+      <c r="F38" s="7"/>
+      <c r="G38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="5"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="7"/>
+      <c r="B43" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="14"/>
       <c r="D43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8" t="s">
+      <c r="F43" s="15"/>
+      <c r="G43" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="5"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5" t="s">
+      <c r="F44" s="7"/>
+      <c r="G44" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="5"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="10"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="7"/>
+      <c r="B51" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="14"/>
       <c r="D51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8" t="s">
+      <c r="F51" s="15"/>
+      <c r="G51" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="8"/>
+      <c r="H51" s="15"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5" t="s">
+      <c r="F52" s="7"/>
+      <c r="G52" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="5"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="5"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
     </row>
     <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="7"/>
+      <c r="B57" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="14"/>
       <c r="D57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8" t="s">
+      <c r="F57" s="15"/>
+      <c r="G57" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="8"/>
+      <c r="H57" s="15"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>1</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="5"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5" t="s">
+      <c r="F58" s="7"/>
+      <c r="G58" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H58" s="5"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>2</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="5"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
     </row>
     <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="7"/>
+      <c r="B63" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="14"/>
       <c r="D63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8" t="s">
+      <c r="F63" s="15"/>
+      <c r="G63" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H63" s="8"/>
+      <c r="H63" s="15"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>1</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="5"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5" t="s">
+      <c r="F64" s="7"/>
+      <c r="G64" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H64" s="5"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="12">
-        <v>2</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>2</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="10"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="12">
+      <c r="F65" s="9"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>3</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="10"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="18"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="12">
+      <c r="F66" s="9"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="16"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>4</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="10"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="18"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="12">
+      <c r="F67" s="9"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="16"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
         <v>5</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="10"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="18"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F68" s="9"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>6</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C69" s="5"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="16"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-    </row>
-    <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A75" s="6" t="s">
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="6"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="K71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="75" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A75" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-    </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="7"/>
+      <c r="B76" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="14"/>
       <c r="D76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8" t="s">
+      <c r="F76" s="15"/>
+      <c r="G76" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H76" s="8"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>1</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C77" s="5"/>
+      <c r="C77" s="7"/>
       <c r="D77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5" t="s">
+      <c r="F77" s="7"/>
+      <c r="G77" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H77" s="5"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>2</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="5"/>
+      <c r="C78" s="7"/>
       <c r="D78" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
     </row>
     <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
     </row>
     <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" s="7"/>
+      <c r="B82" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="14"/>
       <c r="D82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8" t="s">
+      <c r="F82" s="15"/>
+      <c r="G82" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H82" s="8"/>
+      <c r="H82" s="15"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="5"/>
+      <c r="C83" s="7"/>
       <c r="D83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5" t="s">
+      <c r="F83" s="7"/>
+      <c r="G83" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H83" s="5"/>
+      <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>2</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="5"/>
+      <c r="C84" s="7"/>
       <c r="D84" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
     </row>
     <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
     </row>
     <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="7"/>
+      <c r="B88" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="14"/>
       <c r="D88" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8" t="s">
+      <c r="F88" s="15"/>
+      <c r="G88" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H88" s="8"/>
+      <c r="H88" s="15"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>1</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="5"/>
+      <c r="C89" s="7"/>
       <c r="D89" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5" t="s">
+      <c r="F89" s="7"/>
+      <c r="G89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H89" s="5"/>
+      <c r="H89" s="7"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>2</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="5"/>
+      <c r="C90" s="7"/>
       <c r="D90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
     </row>
     <row r="93" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
     </row>
     <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94" s="7"/>
+      <c r="B94" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="14"/>
       <c r="D94" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8" t="s">
+      <c r="F94" s="15"/>
+      <c r="G94" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="8"/>
+      <c r="H94" s="15"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>1</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="5"/>
+      <c r="C95" s="7"/>
       <c r="D95" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5" t="s">
+      <c r="F95" s="7"/>
+      <c r="G95" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H95" s="5"/>
+      <c r="H95" s="7"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>2</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="5"/>
+      <c r="C96" s="7"/>
       <c r="D96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="A87:H87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A81:H81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="E71:F71"/>
     <mergeCell ref="G71:H71"/>
@@ -1889,65 +2011,15 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
@@ -1963,76 +2035,6 @@
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A81:H81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="A87:H87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="A93:H93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/dbraw.xlsx
+++ b/Documentation/dbraw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C-DAC\Project\Cdac-Project\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDAC\CDAC Project\Cdac-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB4AC6E-6E5E-4752-841F-63AE36F6E2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78D4659-5778-45C9-8AD8-2914E9AF98CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BF33976-700D-4C25-9B98-68ED924E98C1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="48">
   <si>
     <t>1. Role</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>om</t>
+  </si>
+  <si>
+    <t>yash</t>
   </si>
 </sst>
 </file>
@@ -315,22 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -339,7 +327,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -659,7 +662,7 @@
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,36 +671,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="14"/>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -738,36 +741,36 @@
       <c r="H4" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="14"/>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9"/>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -808,36 +811,36 @@
       <c r="H9" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="14"/>
+      <c r="B13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9"/>
       <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -878,36 +881,36 @@
       <c r="H15" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="14"/>
+      <c r="B19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9"/>
       <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -948,36 +951,36 @@
       <c r="H21" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="14"/>
+      <c r="B25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9"/>
       <c r="D25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1018,36 +1021,36 @@
       <c r="H27" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="14"/>
+      <c r="B31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="9"/>
       <c r="D31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15" t="s">
+      <c r="F31" s="10"/>
+      <c r="G31" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="15"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -1088,36 +1091,36 @@
       <c r="H33" s="7"/>
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="14"/>
+      <c r="B37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="9"/>
       <c r="D37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15" t="s">
+      <c r="F37" s="10"/>
+      <c r="G37" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="15"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -1158,36 +1161,36 @@
       <c r="H39" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="14"/>
+      <c r="B43" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="9"/>
       <c r="D43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15" t="s">
+      <c r="F43" s="10"/>
+      <c r="G43" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="15"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -1231,19 +1234,19 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
@@ -1264,36 +1267,36 @@
       <c r="H47" s="7"/>
     </row>
     <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="14"/>
+      <c r="B51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="9"/>
       <c r="D51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15" t="s">
+      <c r="F51" s="10"/>
+      <c r="G51" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="15"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
@@ -1334,36 +1337,36 @@
       <c r="H53" s="7"/>
     </row>
     <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="14"/>
+      <c r="B57" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="9"/>
       <c r="D57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15" t="s">
+      <c r="F57" s="10"/>
+      <c r="G57" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="15"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
@@ -1404,36 +1407,36 @@
       <c r="H59" s="7"/>
     </row>
     <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="14"/>
+      <c r="B63" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="9"/>
       <c r="D63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15" t="s">
+      <c r="F63" s="10"/>
+      <c r="G63" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H63" s="15"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
@@ -1459,73 +1462,76 @@
       <c r="A65" s="1">
         <v>2</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="9"/>
+      <c r="C65" s="12"/>
       <c r="D65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="9"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="12"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>3</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="9"/>
+      <c r="C66" s="12"/>
       <c r="D66" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="16"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="13"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>4</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="9"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="16"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="13"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>5</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="9"/>
+      <c r="C68" s="12"/>
       <c r="D68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="16"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="13"/>
+      <c r="K68" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
@@ -1547,66 +1553,66 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
       <c r="K71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
     </row>
     <row r="75" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="14"/>
+      <c r="B76" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="9"/>
       <c r="D76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15" t="s">
+      <c r="F76" s="10"/>
+      <c r="G76" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H76" s="15"/>
+      <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
@@ -1647,36 +1653,36 @@
       <c r="H78" s="7"/>
     </row>
     <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" s="14"/>
+      <c r="B82" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="9"/>
       <c r="D82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15" t="s">
+      <c r="F82" s="10"/>
+      <c r="G82" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H82" s="15"/>
+      <c r="H82" s="10"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
@@ -1717,36 +1723,36 @@
       <c r="H84" s="7"/>
     </row>
     <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="14"/>
+      <c r="B88" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="9"/>
       <c r="D88" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E88" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15" t="s">
+      <c r="F88" s="10"/>
+      <c r="G88" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H88" s="15"/>
+      <c r="H88" s="10"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
@@ -1787,36 +1793,36 @@
       <c r="H90" s="7"/>
     </row>
     <row r="93" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
     </row>
     <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B94" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94" s="14"/>
+      <c r="B94" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="9"/>
       <c r="D94" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="15" t="s">
+      <c r="E94" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15" t="s">
+      <c r="F94" s="10"/>
+      <c r="G94" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="15"/>
+      <c r="H94" s="10"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
@@ -1858,135 +1864,30 @@
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="A93:H93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="A87:H87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A81:H81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="E71:F71"/>
     <mergeCell ref="G71:H71"/>
@@ -2011,30 +1912,135 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A81:H81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="A87:H87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/dbraw.xlsx
+++ b/Documentation/dbraw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDAC\CDAC Project\Cdac-Project\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C-DAC\Project\Cdac-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78D4659-5778-45C9-8AD8-2914E9AF98CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1C0BA2-AF2D-447E-A988-AC94E64C1EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BF33976-700D-4C25-9B98-68ED924E98C1}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{4BF33976-700D-4C25-9B98-68ED924E98C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,10 +165,10 @@
     <t>varchar(225)</t>
   </si>
   <si>
-    <t>om</t>
-  </si>
-  <si>
     <t>yash</t>
+  </si>
+  <si>
+    <t>om biradar</t>
   </si>
 </sst>
 </file>
@@ -318,6 +318,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -327,22 +336,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D7EF82-BDA5-426B-BA27-27E3C64BA0E2}">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +671,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15"/>
@@ -686,21 +686,21 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="9"/>
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -741,36 +741,36 @@
       <c r="H4" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9"/>
+      <c r="B7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12"/>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -811,36 +811,36 @@
       <c r="H9" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="9"/>
+      <c r="B13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="12"/>
       <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -881,36 +881,36 @@
       <c r="H15" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="9"/>
+      <c r="B19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="12"/>
       <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -951,36 +951,36 @@
       <c r="H21" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="9"/>
+      <c r="B25" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="12"/>
       <c r="D25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10" t="s">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="10"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1021,36 +1021,36 @@
       <c r="H27" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="9"/>
+      <c r="B31" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="12"/>
       <c r="D31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10" t="s">
+      <c r="F31" s="13"/>
+      <c r="G31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -1091,36 +1091,36 @@
       <c r="H33" s="7"/>
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="9"/>
+      <c r="B37" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="12"/>
       <c r="D37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10" t="s">
+      <c r="F37" s="13"/>
+      <c r="G37" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="10"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -1161,36 +1161,36 @@
       <c r="H39" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="9"/>
+      <c r="B43" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="12"/>
       <c r="D43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10" t="s">
+      <c r="F43" s="13"/>
+      <c r="G43" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="10"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -1234,19 +1234,19 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="12"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="12"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
@@ -1267,36 +1267,36 @@
       <c r="H47" s="7"/>
     </row>
     <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="9"/>
+      <c r="B51" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="12"/>
       <c r="D51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10" t="s">
+      <c r="F51" s="13"/>
+      <c r="G51" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="10"/>
+      <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
@@ -1337,36 +1337,36 @@
       <c r="H53" s="7"/>
     </row>
     <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="9"/>
+      <c r="B57" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="12"/>
       <c r="D57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10" t="s">
+      <c r="F57" s="13"/>
+      <c r="G57" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="10"/>
+      <c r="H57" s="13"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
@@ -1407,36 +1407,36 @@
       <c r="H59" s="7"/>
     </row>
     <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="9"/>
+      <c r="B63" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="12"/>
       <c r="D63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10" t="s">
+      <c r="F63" s="13"/>
+      <c r="G63" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H63" s="10"/>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
@@ -1462,75 +1462,75 @@
       <c r="A65" s="1">
         <v>2</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="12"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F65" s="12"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="12"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>3</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="12"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F66" s="12"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="13"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="16"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>4</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="12"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="12"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="13"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="16"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>5</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="12"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="13"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="16"/>
       <c r="K68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -1553,13 +1553,13 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B71" s="14"/>
@@ -1570,7 +1570,7 @@
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="K71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -1583,36 +1583,36 @@
       <c r="H72" s="14"/>
     </row>
     <row r="75" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
     </row>
     <row r="76" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="9"/>
+      <c r="B76" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="12"/>
       <c r="D76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10" t="s">
+      <c r="F76" s="13"/>
+      <c r="G76" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H76" s="10"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
@@ -1653,36 +1653,36 @@
       <c r="H78" s="7"/>
     </row>
     <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
     </row>
     <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" s="9"/>
+      <c r="B82" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="12"/>
       <c r="D82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10" t="s">
+      <c r="F82" s="13"/>
+      <c r="G82" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H82" s="10"/>
+      <c r="H82" s="13"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
@@ -1723,36 +1723,36 @@
       <c r="H84" s="7"/>
     </row>
     <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
     </row>
     <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="9"/>
+      <c r="B88" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="12"/>
       <c r="D88" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10" t="s">
+      <c r="F88" s="13"/>
+      <c r="G88" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H88" s="10"/>
+      <c r="H88" s="13"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
@@ -1793,36 +1793,36 @@
       <c r="H90" s="7"/>
     </row>
     <row r="93" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
     </row>
     <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94" s="9"/>
+      <c r="B94" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="12"/>
       <c r="D94" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="10" t="s">
+      <c r="E94" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10" t="s">
+      <c r="F94" s="13"/>
+      <c r="G94" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="10"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
@@ -1864,6 +1864,159 @@
     </row>
   </sheetData>
   <mergeCells count="177">
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="A87:H87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A81:H81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="G45:H45"/>
@@ -1888,159 +2041,6 @@
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="E59:F59"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="A81:H81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="A87:H87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="A93:H93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/dbraw.xlsx
+++ b/Documentation/dbraw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDAC\CDAC Project\Cdac-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5052D0B1-022E-474A-8687-D6C626F9FFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A005989D-9BD2-411F-8E19-06974AC36144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BF33976-700D-4C25-9B98-68ED924E98C1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="66">
   <si>
     <t>1. Role</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>gdfu</t>
   </si>
 </sst>
 </file>
@@ -352,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -372,7 +375,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -384,28 +396,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -414,8 +408,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -732,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D7EF82-BDA5-426B-BA27-27E3C64BA0E2}">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,7 +743,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -759,127 +758,127 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11"/>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11"/>
+      <c r="B7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14"/>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
     </row>
@@ -887,17 +886,17 @@
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
@@ -905,17 +904,17 @@
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
     </row>
@@ -923,17 +922,17 @@
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
     </row>
@@ -941,17 +940,17 @@
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
     </row>
@@ -959,35 +958,35 @@
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
     </row>
@@ -995,17 +994,17 @@
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
     </row>
@@ -1013,805 +1012,806 @@
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="22"/>
+      <c r="B21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="19"/>
       <c r="D21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="19" t="s">
+      <c r="F21" s="21"/>
+      <c r="G21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="11"/>
+      <c r="B27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="14"/>
       <c r="D27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12" t="s">
+      <c r="F27" s="15"/>
+      <c r="G27" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9" t="s">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="14"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="7"/>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="11"/>
+      <c r="B38" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="14"/>
       <c r="D38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="12"/>
+      <c r="H38" s="15"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9" t="s">
+      <c r="F39" s="11"/>
+      <c r="G39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="11"/>
+      <c r="B44" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="14"/>
       <c r="D44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12" t="s">
+      <c r="F44" s="15"/>
+      <c r="G44" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="12"/>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>1</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="9"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9" t="s">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="9"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="11"/>
+      <c r="B50" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="14"/>
       <c r="D50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12" t="s">
+      <c r="F50" s="15"/>
+      <c r="G50" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9" t="s">
+      <c r="F51" s="11"/>
+      <c r="G51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="9"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="10" t="s">
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+    </row>
+    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="11"/>
+      <c r="B56" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="14"/>
       <c r="D56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12" t="s">
+      <c r="F56" s="15"/>
+      <c r="G56" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>1</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="9"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9" t="s">
+      <c r="F57" s="11"/>
+      <c r="G57" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H57" s="9"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="N58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>3</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="14"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="14"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F59" s="10"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>4</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="9"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-    </row>
-    <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="10" t="s">
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+    </row>
+    <row r="63" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="11"/>
+      <c r="B64" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="14"/>
       <c r="D64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12" t="s">
+      <c r="F64" s="15"/>
+      <c r="G64" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H64" s="12"/>
+      <c r="H64" s="15"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>1</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="9"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9" t="s">
+      <c r="F65" s="11"/>
+      <c r="G65" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H65" s="9"/>
+      <c r="H65" s="11"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="9"/>
+      <c r="C66" s="11"/>
       <c r="D66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
     </row>
     <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
     </row>
     <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="11"/>
+      <c r="B70" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="14"/>
       <c r="D70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12" t="s">
+      <c r="F70" s="15"/>
+      <c r="G70" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H70" s="12"/>
+      <c r="H70" s="15"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>1</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="9"/>
+      <c r="C71" s="11"/>
       <c r="D71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9" t="s">
+      <c r="F71" s="11"/>
+      <c r="G71" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="9"/>
+      <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>2</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="9"/>
+      <c r="C72" s="11"/>
       <c r="D72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
     </row>
     <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="11"/>
+      <c r="B76" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="14"/>
       <c r="D76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12" t="s">
+      <c r="F76" s="15"/>
+      <c r="G76" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H76" s="12"/>
+      <c r="H76" s="15"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>1</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="9"/>
+      <c r="C77" s="11"/>
       <c r="D77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9" t="s">
+      <c r="F77" s="11"/>
+      <c r="G77" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H77" s="9"/>
+      <c r="H77" s="11"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>2</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="14"/>
+      <c r="C78" s="10"/>
       <c r="D78" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F78" s="14"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="14"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="10"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>3</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="14"/>
+      <c r="C79" s="10"/>
       <c r="D79" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E79" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F79" s="14"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="15"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="22"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>4</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="14"/>
+      <c r="C80" s="10"/>
       <c r="D80" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="E80" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F80" s="14"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="15"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="22"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>5</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="14"/>
+      <c r="C81" s="10"/>
       <c r="D81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F81" s="14"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="15"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="22"/>
       <c r="K81" t="s">
         <v>46</v>
       </c>
@@ -1820,29 +1820,29 @@
       <c r="A82" s="1">
         <v>6</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="9"/>
+      <c r="C82" s="11"/>
       <c r="D82" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B84" s="16"/>
@@ -1866,299 +1866,445 @@
       <c r="H85" s="16"/>
     </row>
     <row r="88" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
     </row>
     <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="11"/>
+      <c r="B89" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="14"/>
       <c r="D89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="E89" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12" t="s">
+      <c r="F89" s="15"/>
+      <c r="G89" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="12"/>
+      <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>1</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="9"/>
+      <c r="C90" s="11"/>
       <c r="D90" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9" t="s">
+      <c r="F90" s="11"/>
+      <c r="G90" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H90" s="9"/>
+      <c r="H90" s="11"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>2</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="9"/>
+      <c r="C91" s="11"/>
       <c r="D91" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
     </row>
     <row r="94" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95" s="11"/>
+      <c r="B95" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="14"/>
       <c r="D95" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="E95" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12" t="s">
+      <c r="F95" s="15"/>
+      <c r="G95" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H95" s="12"/>
+      <c r="H95" s="15"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="9"/>
+      <c r="C96" s="11"/>
       <c r="D96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9" t="s">
+      <c r="F96" s="11"/>
+      <c r="G96" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H96" s="9"/>
+      <c r="H96" s="11"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>2</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="9"/>
+      <c r="C97" s="11"/>
       <c r="D97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
     </row>
     <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
     </row>
     <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="11"/>
+      <c r="B101" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="14"/>
       <c r="D101" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="12" t="s">
+      <c r="E101" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12" t="s">
+      <c r="F101" s="15"/>
+      <c r="G101" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="12"/>
+      <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C102" s="9"/>
+      <c r="C102" s="11"/>
       <c r="D102" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9" t="s">
+      <c r="F102" s="11"/>
+      <c r="G102" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H102" s="9"/>
+      <c r="H102" s="11"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>2</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="9"/>
+      <c r="C103" s="11"/>
       <c r="D103" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
     </row>
     <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
     </row>
     <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="11"/>
+      <c r="B107" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="14"/>
       <c r="D107" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="E107" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12" t="s">
+      <c r="F107" s="15"/>
+      <c r="G107" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H107" s="12"/>
+      <c r="H107" s="15"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>1</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="9"/>
+      <c r="C108" s="11"/>
       <c r="D108" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9" t="s">
+      <c r="F108" s="11"/>
+      <c r="G108" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H108" s="9"/>
+      <c r="H108" s="11"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C109" s="9"/>
+      <c r="C109" s="11"/>
       <c r="D109" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="A100:H100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="A88:H88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="G58:H58"/>
@@ -2183,172 +2329,26 @@
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="E72:F72"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="A88:H88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="A100:H100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="G107:H107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/dbraw.xlsx
+++ b/Documentation/dbraw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDAC\CDAC Project\Cdac-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5052D0B1-022E-474A-8687-D6C626F9FFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDE068E-153A-41E0-A728-362909B0EF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BF33976-700D-4C25-9B98-68ED924E98C1}"/>
   </bookViews>
@@ -352,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -372,7 +372,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -384,28 +393,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -414,8 +405,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -734,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D7EF82-BDA5-426B-BA27-27E3C64BA0E2}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109:H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,7 +740,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -759,127 +755,127 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11"/>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11"/>
+      <c r="B7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14"/>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
     </row>
@@ -887,17 +883,17 @@
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
@@ -905,17 +901,17 @@
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
     </row>
@@ -923,17 +919,17 @@
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
     </row>
@@ -941,17 +937,17 @@
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
     </row>
@@ -959,35 +955,35 @@
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
     </row>
@@ -995,17 +991,17 @@
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
     </row>
@@ -1013,805 +1009,803 @@
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="22"/>
+      <c r="B21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="19"/>
       <c r="D21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="19" t="s">
+      <c r="F21" s="21"/>
+      <c r="G21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="11"/>
+      <c r="B27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="14"/>
       <c r="D27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12" t="s">
+      <c r="F27" s="15"/>
+      <c r="G27" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9" t="s">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="14"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="7"/>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="11"/>
+      <c r="B38" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="14"/>
       <c r="D38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="12"/>
+      <c r="H38" s="15"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9" t="s">
+      <c r="F39" s="11"/>
+      <c r="G39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="11"/>
+      <c r="B44" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="14"/>
       <c r="D44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12" t="s">
+      <c r="F44" s="15"/>
+      <c r="G44" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="12"/>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>1</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="9"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9" t="s">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="9"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="11"/>
+      <c r="B50" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="14"/>
       <c r="D50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12" t="s">
+      <c r="F50" s="15"/>
+      <c r="G50" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="12"/>
+      <c r="H50" s="15"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9" t="s">
+      <c r="F51" s="11"/>
+      <c r="G51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="9"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="9"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="11"/>
+      <c r="B56" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="14"/>
       <c r="D56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12" t="s">
+      <c r="F56" s="15"/>
+      <c r="G56" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="12"/>
+      <c r="H56" s="15"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>1</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="9"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9" t="s">
+      <c r="F57" s="11"/>
+      <c r="G57" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H57" s="9"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>3</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="14"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="14"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>4</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="9"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
     </row>
     <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="11"/>
+      <c r="B64" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="14"/>
       <c r="D64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12" t="s">
+      <c r="F64" s="15"/>
+      <c r="G64" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H64" s="12"/>
+      <c r="H64" s="15"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>1</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="9"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9" t="s">
+      <c r="F65" s="11"/>
+      <c r="G65" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H65" s="9"/>
+      <c r="H65" s="11"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="9"/>
+      <c r="C66" s="11"/>
       <c r="D66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
     </row>
     <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
     </row>
     <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="11"/>
+      <c r="B70" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="14"/>
       <c r="D70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12" t="s">
+      <c r="F70" s="15"/>
+      <c r="G70" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H70" s="12"/>
+      <c r="H70" s="15"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>1</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="9"/>
+      <c r="C71" s="11"/>
       <c r="D71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9" t="s">
+      <c r="F71" s="11"/>
+      <c r="G71" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="9"/>
+      <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>2</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="9"/>
+      <c r="C72" s="11"/>
       <c r="D72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
     </row>
     <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="11"/>
+      <c r="B76" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="14"/>
       <c r="D76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12" t="s">
+      <c r="F76" s="15"/>
+      <c r="G76" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H76" s="12"/>
+      <c r="H76" s="15"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>1</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="9"/>
+      <c r="C77" s="11"/>
       <c r="D77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9" t="s">
+      <c r="F77" s="11"/>
+      <c r="G77" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H77" s="9"/>
+      <c r="H77" s="11"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>2</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="14"/>
+      <c r="C78" s="10"/>
       <c r="D78" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F78" s="14"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="14"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="10"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>3</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="14"/>
+      <c r="C79" s="10"/>
       <c r="D79" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E79" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F79" s="14"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="15"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="22"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>4</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="14"/>
+      <c r="C80" s="10"/>
       <c r="D80" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="E80" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F80" s="14"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="15"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="22"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>5</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="14"/>
+      <c r="C81" s="10"/>
       <c r="D81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F81" s="14"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="15"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="22"/>
       <c r="K81" t="s">
         <v>46</v>
       </c>
@@ -1820,29 +1814,29 @@
       <c r="A82" s="1">
         <v>6</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="9"/>
+      <c r="C82" s="11"/>
       <c r="D82" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B84" s="16"/>
@@ -1866,299 +1860,447 @@
       <c r="H85" s="16"/>
     </row>
     <row r="88" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
     </row>
     <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="11"/>
+      <c r="B89" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="14"/>
       <c r="D89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="E89" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12" t="s">
+      <c r="F89" s="15"/>
+      <c r="G89" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="12"/>
+      <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>1</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="9"/>
+      <c r="C90" s="11"/>
       <c r="D90" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9" t="s">
+      <c r="F90" s="11"/>
+      <c r="G90" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H90" s="9"/>
+      <c r="H90" s="11"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>2</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="9"/>
+      <c r="C91" s="11"/>
       <c r="D91" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
     </row>
     <row r="94" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95" s="11"/>
+      <c r="B95" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="14"/>
       <c r="D95" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="E95" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12" t="s">
+      <c r="F95" s="15"/>
+      <c r="G95" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H95" s="12"/>
+      <c r="H95" s="15"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="9"/>
+      <c r="C96" s="11"/>
       <c r="D96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9" t="s">
+      <c r="F96" s="11"/>
+      <c r="G96" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H96" s="9"/>
+      <c r="H96" s="11"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>2</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="9"/>
+      <c r="C97" s="11"/>
       <c r="D97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
     </row>
     <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
     </row>
     <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="11"/>
+      <c r="B101" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="14"/>
       <c r="D101" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="12" t="s">
+      <c r="E101" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12" t="s">
+      <c r="F101" s="15"/>
+      <c r="G101" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="12"/>
+      <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C102" s="9"/>
+      <c r="C102" s="11"/>
       <c r="D102" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9" t="s">
+      <c r="F102" s="11"/>
+      <c r="G102" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H102" s="9"/>
+      <c r="H102" s="11"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>2</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="9"/>
+      <c r="C103" s="11"/>
       <c r="D103" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
     </row>
     <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
     </row>
     <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="11"/>
+      <c r="B107" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="14"/>
       <c r="D107" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="E107" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12" t="s">
+      <c r="F107" s="15"/>
+      <c r="G107" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H107" s="12"/>
+      <c r="H107" s="15"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>1</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="9"/>
+      <c r="C108" s="11"/>
       <c r="D108" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9" t="s">
+      <c r="F108" s="11"/>
+      <c r="G108" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H108" s="9"/>
+      <c r="H108" s="11"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C109" s="9"/>
+      <c r="C109" s="11"/>
       <c r="D109" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11">
+        <v>123</v>
+      </c>
+      <c r="H109" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="A100:H100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="A88:H88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="G58:H58"/>
@@ -2183,172 +2325,26 @@
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="E72:F72"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="A88:H88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="A100:H100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="G107:H107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/dbraw.xlsx
+++ b/Documentation/dbraw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDAC\CDAC Project\Cdac-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A005989D-9BD2-411F-8E19-06974AC36144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE273393-FB6A-4F5E-A35D-0D074498B0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BF33976-700D-4C25-9B98-68ED924E98C1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="75">
   <si>
     <t>1. Role</t>
   </si>
@@ -223,6 +223,33 @@
   </si>
   <si>
     <t>gdfu</t>
+  </si>
+  <si>
+    <t>schemename</t>
+  </si>
+  <si>
+    <t>startdate</t>
+  </si>
+  <si>
+    <t>lastdate</t>
+  </si>
+  <si>
+    <t>eligibility</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>fid</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>deptname</t>
   </si>
 </sst>
 </file>
@@ -375,16 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -394,6 +412,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -414,7 +441,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -731,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D7EF82-BDA5-426B-BA27-27E3C64BA0E2}">
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,7 +770,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -758,127 +785,127 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="14"/>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="14"/>
+      <c r="B7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
     </row>
@@ -886,17 +913,17 @@
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
@@ -904,17 +931,17 @@
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
     </row>
@@ -922,17 +949,17 @@
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
     </row>
@@ -940,17 +967,17 @@
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
     </row>
@@ -958,35 +985,35 @@
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
     </row>
@@ -994,17 +1021,17 @@
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
     </row>
@@ -1012,31 +1039,31 @@
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -1062,164 +1089,181 @@
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="9" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="10"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="14"/>
+      <c r="B27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11"/>
       <c r="D27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="15"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="11"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="7"/>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="11"/>
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="14"/>
       <c r="D32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="A33" s="1">
+        <v>6</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
@@ -1231,284 +1275,284 @@
       <c r="H34" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="14"/>
+      <c r="B38" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="11"/>
       <c r="D38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15" t="s">
+      <c r="F38" s="12"/>
+      <c r="G38" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="15"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="11"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11" t="s">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="11"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="14"/>
+      <c r="B44" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="11"/>
       <c r="D44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15" t="s">
+      <c r="F44" s="12"/>
+      <c r="G44" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="15"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>1</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="11"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11" t="s">
+      <c r="F45" s="9"/>
+      <c r="G45" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="11"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="11"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="14"/>
+      <c r="B50" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="11"/>
       <c r="D50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15" t="s">
+      <c r="F50" s="12"/>
+      <c r="G50" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="15"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="11"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="11"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="11"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="14"/>
+      <c r="B56" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="11"/>
       <c r="D56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15" t="s">
+      <c r="F56" s="12"/>
+      <c r="G56" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="15"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>1</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="11"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11" t="s">
+      <c r="F57" s="9"/>
+      <c r="G57" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H57" s="11"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="11"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
       <c r="N58" t="s">
         <v>65</v>
       </c>
@@ -1517,301 +1561,301 @@
       <c r="A59" s="1">
         <v>3</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="10"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="10"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>4</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="11"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="63" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="14"/>
+      <c r="B64" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="11"/>
       <c r="D64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15" t="s">
+      <c r="F64" s="12"/>
+      <c r="G64" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H64" s="15"/>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>1</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="11"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11" t="s">
+      <c r="F65" s="9"/>
+      <c r="G65" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H65" s="11"/>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="11"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
     </row>
     <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="14"/>
+      <c r="B70" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="11"/>
       <c r="D70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15" t="s">
+      <c r="F70" s="12"/>
+      <c r="G70" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H70" s="15"/>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>1</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="11"/>
+      <c r="C71" s="9"/>
       <c r="D71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11" t="s">
+      <c r="F71" s="9"/>
+      <c r="G71" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="11"/>
+      <c r="H71" s="9"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>2</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="11"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
     </row>
     <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="14"/>
+      <c r="B76" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="11"/>
       <c r="D76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15" t="s">
+      <c r="F76" s="12"/>
+      <c r="G76" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H76" s="15"/>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>1</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="11"/>
+      <c r="C77" s="9"/>
       <c r="D77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11" t="s">
+      <c r="F77" s="9"/>
+      <c r="G77" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H77" s="11"/>
+      <c r="H77" s="9"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>2</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="10"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F78" s="10"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="10"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="14"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>3</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="10"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F79" s="10"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="22"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="15"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>4</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="10"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F80" s="10"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="22"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="15"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>5</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="10"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="22"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="15"/>
       <c r="K81" t="s">
         <v>46</v>
       </c>
@@ -1820,29 +1864,29 @@
       <c r="A82" s="1">
         <v>6</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="11"/>
+      <c r="C82" s="9"/>
       <c r="D82" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B84" s="16"/>
@@ -1866,397 +1910,462 @@
       <c r="H85" s="16"/>
     </row>
     <row r="88" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
     </row>
     <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="14"/>
+      <c r="B89" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="11"/>
       <c r="D89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E89" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15" t="s">
+      <c r="F89" s="12"/>
+      <c r="G89" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="15"/>
+      <c r="H89" s="12"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>1</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="11"/>
+      <c r="C90" s="9"/>
       <c r="D90" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="E90" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11" t="s">
+      <c r="F90" s="9"/>
+      <c r="G90" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H90" s="11"/>
+      <c r="H90" s="9"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>2</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="11"/>
+      <c r="C91" s="9"/>
       <c r="D91" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
     </row>
     <row r="94" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95" s="14"/>
+      <c r="B95" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="11"/>
       <c r="D95" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="E95" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15" t="s">
+      <c r="F95" s="12"/>
+      <c r="G95" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H95" s="15"/>
+      <c r="H95" s="12"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="11"/>
+      <c r="C96" s="9"/>
       <c r="D96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="E96" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11" t="s">
+      <c r="F96" s="9"/>
+      <c r="G96" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H96" s="11"/>
+      <c r="H96" s="9"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>2</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="11"/>
+      <c r="C97" s="9"/>
       <c r="D97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="E97" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
     </row>
     <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-    </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+    </row>
+    <row r="101" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="14"/>
+      <c r="B101" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="11"/>
       <c r="D101" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="15" t="s">
+      <c r="E101" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15" t="s">
+      <c r="F101" s="12"/>
+      <c r="G101" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="15"/>
+      <c r="H101" s="12"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="11"/>
+      <c r="B102" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" s="9"/>
       <c r="D102" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="11" t="s">
+      <c r="E102" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11" t="s">
+      <c r="F102" s="9"/>
+      <c r="G102" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H102" s="11"/>
+      <c r="H102" s="9"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>2</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" s="11"/>
+      <c r="B103" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103" s="14"/>
       <c r="D103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103" s="14"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="8"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>3</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
     </row>
     <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-    </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+    </row>
+    <row r="107" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="14"/>
+      <c r="B107" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="11"/>
       <c r="D107" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E107" s="15" t="s">
+      <c r="E107" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15" t="s">
+      <c r="F107" s="12"/>
+      <c r="G107" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H107" s="15"/>
+      <c r="H107" s="12"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>1</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C108" s="11"/>
+      <c r="B108" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108" s="9"/>
       <c r="D108" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="E108" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11" t="s">
+      <c r="F108" s="9"/>
+      <c r="G108" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H108" s="11"/>
+      <c r="H108" s="9"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" s="11"/>
+      <c r="B109" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" s="14"/>
       <c r="D109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F109" s="14"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="14"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>3</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110" s="14"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>4</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="14"/>
+      <c r="D111" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" s="14"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="14"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>5</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112" s="14"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="14"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>6</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="A100:H100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="A88:H88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
+  <mergeCells count="218">
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B3:C3"/>
@@ -2281,74 +2390,115 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="A88:H88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="A100:H100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:H107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/dbraw.xlsx
+++ b/Documentation/dbraw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDAC\CDAC Project\Cdac-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDE068E-153A-41E0-A728-362909B0EF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80D7527-7341-42D9-B25E-A0628BB97E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BF33976-700D-4C25-9B98-68ED924E98C1}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{4BF33976-700D-4C25-9B98-68ED924E98C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="74">
   <si>
     <t>1. Role</t>
   </si>
@@ -220,6 +220,33 @@
   </si>
   <si>
     <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>schemename</t>
+  </si>
+  <si>
+    <t>startdate</t>
+  </si>
+  <si>
+    <t>lastdate</t>
+  </si>
+  <si>
+    <t>eligibility</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>fid</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>deptname</t>
   </si>
 </sst>
 </file>
@@ -372,16 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -391,6 +409,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -411,7 +438,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -728,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D7EF82-BDA5-426B-BA27-27E3C64BA0E2}">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109:H109"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,7 +767,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -755,127 +782,127 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="14"/>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="14"/>
+      <c r="B7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
     </row>
@@ -883,17 +910,17 @@
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
@@ -901,17 +928,17 @@
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
     </row>
@@ -919,17 +946,17 @@
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
     </row>
@@ -937,17 +964,17 @@
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
     </row>
@@ -955,35 +982,35 @@
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
     </row>
@@ -991,17 +1018,17 @@
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
     </row>
@@ -1009,31 +1036,31 @@
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -1059,164 +1086,181 @@
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="9" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="10"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="14"/>
+      <c r="B27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11"/>
       <c r="D27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="15"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="11"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="7"/>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="11"/>
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="14"/>
       <c r="D32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="A33" s="1">
+        <v>6</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
@@ -1228,584 +1272,584 @@
       <c r="H34" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="14"/>
+      <c r="B38" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="11"/>
       <c r="D38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15" t="s">
+      <c r="F38" s="12"/>
+      <c r="G38" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="15"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="11"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11" t="s">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="11"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="14"/>
+      <c r="B44" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="11"/>
       <c r="D44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15" t="s">
+      <c r="F44" s="12"/>
+      <c r="G44" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="15"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>1</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="11"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11" t="s">
+      <c r="F45" s="9"/>
+      <c r="G45" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="11"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="11"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="14"/>
+      <c r="B50" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="11"/>
       <c r="D50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15" t="s">
+      <c r="F50" s="12"/>
+      <c r="G50" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="15"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="11"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="11"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="11"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="14"/>
+      <c r="B56" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="11"/>
       <c r="D56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15" t="s">
+      <c r="F56" s="12"/>
+      <c r="G56" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="15"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>1</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="11"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11" t="s">
+      <c r="F57" s="9"/>
+      <c r="G57" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H57" s="11"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="11"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>3</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="10"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="10"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>4</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="11"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="14"/>
+      <c r="B64" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="11"/>
       <c r="D64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15" t="s">
+      <c r="F64" s="12"/>
+      <c r="G64" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H64" s="15"/>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>1</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="11"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11" t="s">
+      <c r="F65" s="9"/>
+      <c r="G65" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H65" s="11"/>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="11"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
     </row>
     <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="14"/>
+      <c r="B70" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="11"/>
       <c r="D70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15" t="s">
+      <c r="F70" s="12"/>
+      <c r="G70" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H70" s="15"/>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>1</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="11"/>
+      <c r="C71" s="9"/>
       <c r="D71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11" t="s">
+      <c r="F71" s="9"/>
+      <c r="G71" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="11"/>
+      <c r="H71" s="9"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>2</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="11"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
     </row>
     <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="14"/>
+      <c r="B76" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="11"/>
       <c r="D76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15" t="s">
+      <c r="F76" s="12"/>
+      <c r="G76" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H76" s="15"/>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>1</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="11"/>
+      <c r="C77" s="9"/>
       <c r="D77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11" t="s">
+      <c r="F77" s="9"/>
+      <c r="G77" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H77" s="11"/>
+      <c r="H77" s="9"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>2</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="10"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F78" s="10"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="10"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="14"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>3</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="10"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F79" s="10"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="22"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="15"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>4</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="10"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F80" s="10"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="22"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="15"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>5</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="10"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="22"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="15"/>
       <c r="K81" t="s">
         <v>46</v>
       </c>
@@ -1814,29 +1858,29 @@
       <c r="A82" s="1">
         <v>6</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="11"/>
+      <c r="C82" s="9"/>
       <c r="D82" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B84" s="16"/>
@@ -1860,399 +1904,462 @@
       <c r="H85" s="16"/>
     </row>
     <row r="88" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
     </row>
     <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="14"/>
+      <c r="B89" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="11"/>
       <c r="D89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E89" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15" t="s">
+      <c r="F89" s="12"/>
+      <c r="G89" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="15"/>
+      <c r="H89" s="12"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>1</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="11"/>
+      <c r="C90" s="9"/>
       <c r="D90" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="E90" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11" t="s">
+      <c r="F90" s="9"/>
+      <c r="G90" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H90" s="11"/>
+      <c r="H90" s="9"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>2</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="11"/>
+      <c r="C91" s="9"/>
       <c r="D91" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
     </row>
     <row r="94" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
     </row>
     <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95" s="14"/>
+      <c r="B95" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="11"/>
       <c r="D95" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="E95" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15" t="s">
+      <c r="F95" s="12"/>
+      <c r="G95" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H95" s="15"/>
+      <c r="H95" s="12"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="11"/>
+      <c r="C96" s="9"/>
       <c r="D96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="E96" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11" t="s">
+      <c r="F96" s="9"/>
+      <c r="G96" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H96" s="11"/>
+      <c r="H96" s="9"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>2</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="11"/>
+      <c r="C97" s="9"/>
       <c r="D97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="E97" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
     </row>
     <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-    </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+    </row>
+    <row r="101" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="14"/>
+      <c r="B101" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="11"/>
       <c r="D101" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="15" t="s">
+      <c r="E101" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15" t="s">
+      <c r="F101" s="12"/>
+      <c r="G101" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="15"/>
+      <c r="H101" s="12"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="11"/>
+      <c r="B102" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C102" s="9"/>
       <c r="D102" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="11" t="s">
+      <c r="E102" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11" t="s">
+      <c r="F102" s="9"/>
+      <c r="G102" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H102" s="11"/>
+      <c r="H102" s="9"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>2</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" s="11"/>
+      <c r="B103" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" s="14"/>
       <c r="D103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103" s="14"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="8"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>3</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
     </row>
     <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-    </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+    </row>
+    <row r="107" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="14"/>
+      <c r="B107" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="11"/>
       <c r="D107" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E107" s="15" t="s">
+      <c r="E107" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15" t="s">
+      <c r="F107" s="12"/>
+      <c r="G107" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H107" s="15"/>
+      <c r="H107" s="12"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>1</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C108" s="11"/>
+      <c r="B108" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108" s="9"/>
       <c r="D108" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="E108" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11" t="s">
+      <c r="F108" s="9"/>
+      <c r="G108" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H108" s="11"/>
+      <c r="H108" s="9"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" s="11"/>
+      <c r="B109" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" s="14"/>
       <c r="D109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11">
-        <v>123</v>
-      </c>
-      <c r="H109" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F109" s="14"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="14"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>3</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110" s="14"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>4</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C111" s="14"/>
+      <c r="D111" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" s="14"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="14"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>5</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112" s="14"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="14"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>6</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="A100:H100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="A88:H88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
+  <mergeCells count="218">
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B3:C3"/>
@@ -2277,74 +2384,115 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="A88:H88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="A100:H100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:H107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/dbraw.xlsx
+++ b/Documentation/dbraw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDAC\CDAC Project\Cdac-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80D7527-7341-42D9-B25E-A0628BB97E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEEC284-D091-4DB3-821D-B67AB742B58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{4BF33976-700D-4C25-9B98-68ED924E98C1}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{4BF33976-700D-4C25-9B98-68ED924E98C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="75">
   <si>
     <t>1. Role</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>deptname</t>
+  </si>
+  <si>
+    <t>uu</t>
   </si>
 </sst>
 </file>
@@ -402,6 +405,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -409,12 +418,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -755,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D7EF82-BDA5-426B-BA27-27E3C64BA0E2}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:H34"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,7 +770,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17"/>
@@ -782,21 +785,21 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11"/>
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -837,36 +840,36 @@
       <c r="H4" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11"/>
+      <c r="B7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13"/>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -892,17 +895,17 @@
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
     </row>
@@ -910,17 +913,17 @@
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
@@ -928,17 +931,17 @@
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
     </row>
@@ -946,17 +949,17 @@
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
     </row>
@@ -964,17 +967,17 @@
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
     </row>
@@ -982,35 +985,35 @@
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
     </row>
@@ -1018,17 +1021,17 @@
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
     </row>
@@ -1051,16 +1054,16 @@
       <c r="H17" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -1086,71 +1089,71 @@
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="11"/>
+      <c r="G22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="11"/>
+      <c r="B27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="13"/>
       <c r="D27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1176,53 +1179,53 @@
       <c r="A29" s="1">
         <v>2</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="14"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="7"/>
       <c r="H31" s="8"/>
     </row>
@@ -1230,17 +1233,17 @@
       <c r="A32" s="1">
         <v>5</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="14"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="14"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
     </row>
@@ -1272,36 +1275,36 @@
       <c r="H34" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="11"/>
+      <c r="B38" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="13"/>
       <c r="D38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12" t="s">
+      <c r="F38" s="14"/>
+      <c r="G38" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="12"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -1342,36 +1345,36 @@
       <c r="H40" s="9"/>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="11"/>
+      <c r="B44" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="13"/>
       <c r="D44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12" t="s">
+      <c r="F44" s="14"/>
+      <c r="G44" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="12"/>
+      <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -1412,36 +1415,36 @@
       <c r="H46" s="9"/>
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="11"/>
+      <c r="B50" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="13"/>
       <c r="D50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12" t="s">
+      <c r="F50" s="14"/>
+      <c r="G50" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="12"/>
+      <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
@@ -1482,36 +1485,36 @@
       <c r="H52" s="9"/>
     </row>
     <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="11"/>
+      <c r="B56" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="13"/>
       <c r="D56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12" t="s">
+      <c r="F56" s="14"/>
+      <c r="G56" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="12"/>
+      <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
@@ -1555,19 +1558,19 @@
       <c r="A59" s="1">
         <v>3</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="14"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="14"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
@@ -1588,36 +1591,36 @@
       <c r="H60" s="9"/>
     </row>
     <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="11"/>
+      <c r="B64" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="13"/>
       <c r="D64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12" t="s">
+      <c r="F64" s="14"/>
+      <c r="G64" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H64" s="12"/>
+      <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
@@ -1658,36 +1661,36 @@
       <c r="H66" s="9"/>
     </row>
     <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="11"/>
+      <c r="B70" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="13"/>
       <c r="D70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12" t="s">
+      <c r="F70" s="14"/>
+      <c r="G70" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H70" s="12"/>
+      <c r="H70" s="14"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -1728,36 +1731,36 @@
       <c r="H72" s="9"/>
     </row>
     <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
     </row>
     <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="11"/>
+      <c r="B76" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="13"/>
       <c r="D76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12" t="s">
+      <c r="F76" s="14"/>
+      <c r="G76" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H76" s="12"/>
+      <c r="H76" s="14"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
@@ -1783,72 +1786,72 @@
       <c r="A78" s="1">
         <v>2</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="14"/>
+      <c r="C78" s="11"/>
       <c r="D78" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F78" s="14"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="14"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="11"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>3</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="14"/>
+      <c r="C79" s="11"/>
       <c r="D79" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E79" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F79" s="14"/>
-      <c r="G79" s="13"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="10"/>
       <c r="H79" s="15"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>4</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="14"/>
+      <c r="C80" s="11"/>
       <c r="D80" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="E80" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F80" s="14"/>
-      <c r="G80" s="13"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="10"/>
       <c r="H80" s="15"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>5</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="14"/>
+      <c r="C81" s="11"/>
       <c r="D81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F81" s="14"/>
-      <c r="G81" s="13"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="10"/>
       <c r="H81" s="15"/>
       <c r="K81" t="s">
         <v>46</v>
@@ -1904,36 +1907,36 @@
       <c r="H85" s="16"/>
     </row>
     <row r="88" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
     </row>
     <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="11"/>
+      <c r="B89" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="13"/>
       <c r="D89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="E89" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12" t="s">
+      <c r="F89" s="14"/>
+      <c r="G89" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="12"/>
+      <c r="H89" s="14"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
@@ -1974,36 +1977,36 @@
       <c r="H91" s="9"/>
     </row>
     <row r="94" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
     </row>
     <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95" s="11"/>
+      <c r="B95" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="13"/>
       <c r="D95" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="E95" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12" t="s">
+      <c r="F95" s="14"/>
+      <c r="G95" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H95" s="12"/>
+      <c r="H95" s="14"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
@@ -2044,36 +2047,36 @@
       <c r="H97" s="9"/>
     </row>
     <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
     </row>
     <row r="101" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="11"/>
+      <c r="B101" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="13"/>
       <c r="D101" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="12" t="s">
+      <c r="E101" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12" t="s">
+      <c r="F101" s="14"/>
+      <c r="G101" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="12"/>
+      <c r="H101" s="14"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
@@ -2099,17 +2102,17 @@
       <c r="A103" s="1">
         <v>2</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C103" s="14"/>
+      <c r="C103" s="11"/>
       <c r="D103" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E103" s="13" t="s">
+      <c r="E103" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F103" s="14"/>
+      <c r="F103" s="11"/>
       <c r="G103" s="7"/>
       <c r="H103" s="8"/>
     </row>
@@ -2132,36 +2135,36 @@
       <c r="H104" s="9"/>
     </row>
     <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
     </row>
     <row r="107" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="11"/>
+      <c r="B107" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="13"/>
       <c r="D107" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="E107" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12" t="s">
+      <c r="F107" s="14"/>
+      <c r="G107" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H107" s="12"/>
+      <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
@@ -2187,75 +2190,75 @@
       <c r="A109" s="1">
         <v>2</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C109" s="14"/>
+      <c r="C109" s="11"/>
       <c r="D109" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E109" s="13" t="s">
+      <c r="E109" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F109" s="14"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="14"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="11"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>3</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C110" s="14"/>
+      <c r="C110" s="11"/>
       <c r="D110" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E110" s="13" t="s">
+      <c r="E110" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F110" s="14"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="14"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="11"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>4</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C111" s="14"/>
+      <c r="C111" s="11"/>
       <c r="D111" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E111" s="13" t="s">
+      <c r="E111" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F111" s="14"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="14"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="11"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>5</v>
       </c>
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C112" s="14"/>
+      <c r="C112" s="11"/>
       <c r="D112" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E112" s="13" t="s">
+      <c r="E112" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F112" s="14"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="14"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F112" s="11"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="11"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>6</v>
       </c>
@@ -2273,8 +2276,29 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I116" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="218">
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="B113:C113"/>
     <mergeCell ref="E113:F113"/>
     <mergeCell ref="G113:H113"/>
@@ -2291,42 +2315,21 @@
     <mergeCell ref="E111:F111"/>
     <mergeCell ref="G111:H111"/>
     <mergeCell ref="B112:C112"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E79:F79"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="E60:F60"/>
     <mergeCell ref="G60:H60"/>
@@ -2336,12 +2339,20 @@
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="E72:F72"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A20:H20"/>
@@ -2360,6 +2371,10 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B3:C3"/>
@@ -2397,6 +2412,13 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="G46:H46"/>
@@ -2424,29 +2446,6 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="E79:F79"/>
     <mergeCell ref="G79:H79"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="E80:F80"/>
@@ -2457,6 +2456,15 @@
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="E91:F91"/>
     <mergeCell ref="G91:H91"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
     <mergeCell ref="A94:H94"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="E95:F95"/>

--- a/Documentation/dbraw.xlsx
+++ b/Documentation/dbraw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDAC\CDAC Project\Cdac-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEEC284-D091-4DB3-821D-B67AB742B58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD84FCC-9103-425B-B6BE-3C7222185FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{4BF33976-700D-4C25-9B98-68ED924E98C1}"/>
   </bookViews>
@@ -249,7 +249,7 @@
     <t>deptname</t>
   </si>
   <si>
-    <t>uu</t>
+    <t>up</t>
   </si>
 </sst>
 </file>
@@ -402,13 +402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -418,12 +418,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -439,6 +433,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -773,13 +773,13 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -805,39 +805,39 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
@@ -875,37 +875,37 @@
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
     </row>
@@ -913,17 +913,17 @@
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
@@ -931,17 +931,17 @@
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
     </row>
@@ -949,17 +949,17 @@
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
     </row>
@@ -967,17 +967,17 @@
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
     </row>
@@ -985,35 +985,35 @@
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
     </row>
@@ -1021,17 +1021,17 @@
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
     </row>
@@ -1039,19 +1039,19 @@
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
@@ -1069,59 +1069,59 @@
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="19"/>
+      <c r="B21" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="11"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
@@ -1159,73 +1159,73 @@
       <c r="A28" s="1">
         <v>1</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9" t="s">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="11"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="7"/>
       <c r="H31" s="8"/>
     </row>
@@ -1233,17 +1233,17 @@
       <c r="A32" s="1">
         <v>5</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="11"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="11"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
     </row>
@@ -1251,19 +1251,19 @@
       <c r="A33" s="1">
         <v>6</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
@@ -1310,39 +1310,39 @@
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9" t="s">
+      <c r="F39" s="11"/>
+      <c r="G39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
@@ -1380,39 +1380,39 @@
       <c r="A45" s="1">
         <v>1</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="9"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9" t="s">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="9"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
@@ -1450,39 +1450,39 @@
       <c r="A51" s="1">
         <v>1</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9" t="s">
+      <c r="F51" s="11"/>
+      <c r="G51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="9"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="9"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
@@ -1520,75 +1520,75 @@
       <c r="A57" s="1">
         <v>1</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="9"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9" t="s">
+      <c r="F57" s="11"/>
+      <c r="G57" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H57" s="9"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>3</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="11"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="11"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>4</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="9"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
     </row>
     <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
@@ -1626,39 +1626,39 @@
       <c r="A65" s="1">
         <v>1</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="9"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9" t="s">
+      <c r="F65" s="11"/>
+      <c r="G65" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H65" s="9"/>
+      <c r="H65" s="11"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="9"/>
+      <c r="C66" s="11"/>
       <c r="D66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
     </row>
     <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
@@ -1696,39 +1696,39 @@
       <c r="A71" s="1">
         <v>1</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="9"/>
+      <c r="C71" s="11"/>
       <c r="D71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9" t="s">
+      <c r="F71" s="11"/>
+      <c r="G71" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="9"/>
+      <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>2</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="9"/>
+      <c r="C72" s="11"/>
       <c r="D72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
     </row>
     <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
@@ -1766,93 +1766,93 @@
       <c r="A77" s="1">
         <v>1</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="9"/>
+      <c r="C77" s="11"/>
       <c r="D77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9" t="s">
+      <c r="F77" s="11"/>
+      <c r="G77" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H77" s="9"/>
+      <c r="H77" s="11"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>2</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="11"/>
+      <c r="C78" s="10"/>
       <c r="D78" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E78" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F78" s="11"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="11"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="10"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>3</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="11"/>
+      <c r="C79" s="10"/>
       <c r="D79" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F79" s="11"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="15"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="20"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>4</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="11"/>
+      <c r="C80" s="10"/>
       <c r="D80" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="15"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>5</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="11"/>
+      <c r="C81" s="10"/>
       <c r="D81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F81" s="11"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="15"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="20"/>
       <c r="K81" t="s">
         <v>46</v>
       </c>
@@ -1861,19 +1861,19 @@
       <c r="A82" s="1">
         <v>6</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="9"/>
+      <c r="C82" s="11"/>
       <c r="D82" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
@@ -1886,25 +1886,25 @@
       <c r="H83" s="22"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
       <c r="K84" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
     </row>
     <row r="88" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
@@ -1942,39 +1942,39 @@
       <c r="A90" s="1">
         <v>1</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="9"/>
+      <c r="C90" s="11"/>
       <c r="D90" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9" t="s">
+      <c r="F90" s="11"/>
+      <c r="G90" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H90" s="9"/>
+      <c r="H90" s="11"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>2</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="9"/>
+      <c r="C91" s="11"/>
       <c r="D91" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
     </row>
     <row r="94" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
@@ -2012,39 +2012,39 @@
       <c r="A96" s="1">
         <v>1</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="9"/>
+      <c r="C96" s="11"/>
       <c r="D96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9" t="s">
+      <c r="F96" s="11"/>
+      <c r="G96" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H96" s="9"/>
+      <c r="H96" s="11"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>2</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="9"/>
+      <c r="C97" s="11"/>
       <c r="D97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
     </row>
     <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
@@ -2082,37 +2082,37 @@
       <c r="A102" s="1">
         <v>1</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C102" s="9"/>
+      <c r="C102" s="11"/>
       <c r="D102" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9" t="s">
+      <c r="F102" s="11"/>
+      <c r="G102" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H102" s="9"/>
+      <c r="H102" s="11"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>2</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C103" s="11"/>
+      <c r="C103" s="10"/>
       <c r="D103" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E103" s="10" t="s">
+      <c r="E103" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F103" s="11"/>
+      <c r="F103" s="10"/>
       <c r="G103" s="7"/>
       <c r="H103" s="8"/>
     </row>
@@ -2120,19 +2120,19 @@
       <c r="A104" s="1">
         <v>3</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C104" s="9"/>
+      <c r="C104" s="11"/>
       <c r="D104" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
     </row>
     <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="12" t="s">
@@ -2170,111 +2170,111 @@
       <c r="A108" s="1">
         <v>1</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C108" s="9"/>
+      <c r="C108" s="11"/>
       <c r="D108" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9" t="s">
+      <c r="F108" s="11"/>
+      <c r="G108" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H108" s="9"/>
+      <c r="H108" s="11"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C109" s="11"/>
+      <c r="C109" s="10"/>
       <c r="D109" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="E109" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F109" s="11"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="11"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="10"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>3</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C110" s="11"/>
+      <c r="C110" s="10"/>
       <c r="D110" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E110" s="10" t="s">
+      <c r="E110" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F110" s="11"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="11"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="10"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>4</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C111" s="11"/>
+      <c r="C111" s="10"/>
       <c r="D111" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="E111" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F111" s="11"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="11"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="10"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>5</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C112" s="11"/>
+      <c r="C112" s="10"/>
       <c r="D112" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E112" s="10" t="s">
+      <c r="E112" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F112" s="11"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="11"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="10"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>6</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C113" s="9"/>
+      <c r="C113" s="11"/>
       <c r="D113" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I116" t="s">
@@ -2283,17 +2283,176 @@
     </row>
   </sheetData>
   <mergeCells count="218">
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="A100:H100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="A88:H88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="B23:C23"/>
@@ -2318,6 +2477,17 @@
     <mergeCell ref="A75:H75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="G76:H76"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="E77:F77"/>
@@ -2331,176 +2501,6 @@
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="B60:C60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="A88:H88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="A100:H100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="G107:H107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/dbraw.xlsx
+++ b/Documentation/dbraw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDAC\CDAC Project\Cdac-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD84FCC-9103-425B-B6BE-3C7222185FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8677BB86-EF3C-4D17-83C5-A0A10568D462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{4BF33976-700D-4C25-9B98-68ED924E98C1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="76">
   <si>
     <t>1. Role</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>up</t>
+  </si>
+  <si>
+    <t>OM</t>
   </si>
 </sst>
 </file>
@@ -402,13 +405,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -418,6 +421,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -433,15 +445,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -760,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D7EF82-BDA5-426B-BA27-27E3C64BA0E2}">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,13 +776,13 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -805,39 +808,39 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
@@ -875,37 +878,37 @@
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
     </row>
@@ -913,17 +916,17 @@
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
@@ -931,17 +934,17 @@
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
     </row>
@@ -949,17 +952,17 @@
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
     </row>
@@ -967,17 +970,17 @@
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
     </row>
@@ -985,35 +988,35 @@
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
     </row>
@@ -1021,17 +1024,17 @@
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
     </row>
@@ -1039,19 +1042,19 @@
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
@@ -1069,59 +1072,59 @@
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="17"/>
+      <c r="B21" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="20"/>
       <c r="D21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="18" t="s">
+      <c r="F21" s="22"/>
+      <c r="G21" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="9" t="s">
+      <c r="F22" s="11"/>
+      <c r="G22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="10"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
@@ -1159,73 +1162,73 @@
       <c r="A28" s="1">
         <v>1</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="11"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="7"/>
       <c r="H31" s="8"/>
     </row>
@@ -1233,17 +1236,17 @@
       <c r="A32" s="1">
         <v>5</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="10"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
     </row>
@@ -1251,19 +1254,19 @@
       <c r="A33" s="1">
         <v>6</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
@@ -1310,39 +1313,39 @@
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="11"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11" t="s">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="11"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
@@ -1380,39 +1383,39 @@
       <c r="A45" s="1">
         <v>1</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="11"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11" t="s">
+      <c r="F45" s="9"/>
+      <c r="G45" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="11"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="11"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
@@ -1450,39 +1453,39 @@
       <c r="A51" s="1">
         <v>1</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="11"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="11"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="11"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
@@ -1520,75 +1523,75 @@
       <c r="A57" s="1">
         <v>1</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="11"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11" t="s">
+      <c r="F57" s="9"/>
+      <c r="G57" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H57" s="11"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="11"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>3</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="10"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="10"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>4</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="11"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
@@ -1622,45 +1625,45 @@
       </c>
       <c r="H64" s="14"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>1</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="11"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11" t="s">
+      <c r="F65" s="9"/>
+      <c r="G65" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H65" s="11"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="11"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-    </row>
-    <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="69" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
         <v>23</v>
       </c>
@@ -1672,7 +1675,7 @@
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>1</v>
       </c>
@@ -1692,45 +1695,45 @@
       </c>
       <c r="H70" s="14"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>1</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="11"/>
+      <c r="C71" s="9"/>
       <c r="D71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11" t="s">
+      <c r="F71" s="9"/>
+      <c r="G71" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H71" s="9"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>2</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="11"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-    </row>
-    <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+    </row>
+    <row r="75" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
         <v>24</v>
       </c>
@@ -1742,7 +1745,7 @@
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>1</v>
       </c>
@@ -1762,97 +1765,100 @@
       </c>
       <c r="H76" s="14"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>1</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="11"/>
+      <c r="C77" s="9"/>
       <c r="D77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11" t="s">
+      <c r="F77" s="9"/>
+      <c r="G77" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H77" s="11"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>2</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="10"/>
+      <c r="C78" s="11"/>
       <c r="D78" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F78" s="10"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="10"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F78" s="11"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="11"/>
+      <c r="K78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>3</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="10"/>
+      <c r="C79" s="11"/>
       <c r="D79" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F79" s="10"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="20"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F79" s="11"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>4</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="10"/>
+      <c r="C80" s="11"/>
       <c r="D80" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F80" s="10"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="20"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="15"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>5</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="10"/>
+      <c r="C81" s="11"/>
       <c r="D81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="20"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="15"/>
       <c r="K81" t="s">
         <v>46</v>
       </c>
@@ -1861,50 +1867,50 @@
       <c r="A82" s="1">
         <v>6</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="11"/>
+      <c r="C82" s="9"/>
       <c r="D82" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
       <c r="K84" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
     </row>
     <row r="88" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
@@ -1942,39 +1948,39 @@
       <c r="A90" s="1">
         <v>1</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="11"/>
+      <c r="C90" s="9"/>
       <c r="D90" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="E90" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11" t="s">
+      <c r="F90" s="9"/>
+      <c r="G90" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H90" s="11"/>
+      <c r="H90" s="9"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>2</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="11"/>
+      <c r="C91" s="9"/>
       <c r="D91" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
     </row>
     <row r="94" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
@@ -2012,39 +2018,39 @@
       <c r="A96" s="1">
         <v>1</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="11"/>
+      <c r="C96" s="9"/>
       <c r="D96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="E96" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11" t="s">
+      <c r="F96" s="9"/>
+      <c r="G96" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H96" s="11"/>
+      <c r="H96" s="9"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>2</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="11"/>
+      <c r="C97" s="9"/>
       <c r="D97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="E97" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
     </row>
     <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
@@ -2082,37 +2088,37 @@
       <c r="A102" s="1">
         <v>1</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C102" s="11"/>
+      <c r="C102" s="9"/>
       <c r="D102" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="11" t="s">
+      <c r="E102" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11" t="s">
+      <c r="F102" s="9"/>
+      <c r="G102" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H102" s="11"/>
+      <c r="H102" s="9"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>2</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C103" s="10"/>
+      <c r="C103" s="11"/>
       <c r="D103" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F103" s="10"/>
+      <c r="F103" s="11"/>
       <c r="G103" s="7"/>
       <c r="H103" s="8"/>
     </row>
@@ -2120,19 +2126,19 @@
       <c r="A104" s="1">
         <v>3</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C104" s="11"/>
+      <c r="C104" s="9"/>
       <c r="D104" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E104" s="11" t="s">
+      <c r="E104" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
     </row>
     <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="12" t="s">
@@ -2170,111 +2176,111 @@
       <c r="A108" s="1">
         <v>1</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C108" s="11"/>
+      <c r="C108" s="9"/>
       <c r="D108" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="E108" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11" t="s">
+      <c r="F108" s="9"/>
+      <c r="G108" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H108" s="11"/>
+      <c r="H108" s="9"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C109" s="10"/>
+      <c r="C109" s="11"/>
       <c r="D109" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F109" s="10"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="10"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="11"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>3</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C110" s="10"/>
+      <c r="C110" s="11"/>
       <c r="D110" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E110" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F110" s="10"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="10"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="11"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>4</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C111" s="10"/>
+      <c r="C111" s="11"/>
       <c r="D111" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F111" s="10"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="10"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="11"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>5</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C112" s="10"/>
+      <c r="C112" s="11"/>
       <c r="D112" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F112" s="10"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="10"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="11"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>6</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C113" s="11"/>
+      <c r="C113" s="9"/>
       <c r="D113" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E113" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I116" t="s">
@@ -2283,130 +2289,74 @@
     </row>
   </sheetData>
   <mergeCells count="218">
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="A100:H100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="A88:H88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A20:H20"/>
@@ -2431,76 +2381,132 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="A88:H88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="A100:H100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:H107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
